--- a/CH-115 Multi Replacement.xlsx
+++ b/CH-115 Multi Replacement.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D871E7-1567-4461-A6F8-E2D1E403EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B3CCDF-9909-4198-98F8-F112760BE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$3:$B$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$3:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
   <si>
     <t>Result</t>
   </si>
@@ -105,6 +129,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7242276200906158081/</t>
+  </si>
+  <si>
+    <t>Classic two substitutions</t>
   </si>
 </sst>
 </file>
@@ -327,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -366,6 +393,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,6 +508,241 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA92CFD9-E0BB-DAC5-95A8-A2838B2C84DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4302124" y="1898651"/>
+            <a:ext cx="3476625" cy="2343149"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Challenge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> 115</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Multi Replacement! </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-AU" sz="1600" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:endParaRPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Replace "q" and "000" in the Product ID and Customer ID columns with "-".</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220344</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2903855</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>135891</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57163141-D19C-4770-B160-DF73D6B69F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3612514" y="105411"/>
+          <a:ext cx="2680971" cy="2014220"/>
+          <a:chOff x="4191000" y="1860550"/>
+          <a:chExt cx="3695700" cy="2393950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75613D45-2EBF-0F11-C263-757F9CAD50E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4191000" y="1860550"/>
+            <a:ext cx="3695700" cy="2393950"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-AU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1164CF5-9219-C992-14DF-D77AB0C36B41}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -862,11 +1127,38 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="880" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{AFB2A4B2-196E-42DE-BF5F-11EE00745C05}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1176,4 +1468,443 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47CC63-CA9F-429D-B35C-E6A51DDE6371}">
+  <dimension ref="B1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J15:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.69921875" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14">
+        <v>45508</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16">
+        <v>900</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="14">
+        <v>45508</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="16">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
+        <v>45511</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="14">
+        <v>45511</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>45511</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16">
+        <v>500</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="14">
+        <v>45511</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="16">
+        <v>500</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>45516</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16">
+        <v>600</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="14">
+        <v>45516</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="16">
+        <v>600</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>45518</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16">
+        <v>800</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="14">
+        <v>45518</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="16">
+        <v>800</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>45525</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="14">
+        <v>45525</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1400</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
+        <v>45530</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="17">
+        <v>45530</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1700</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" cm="1">
+        <f t="array" ref="B15:F21">_xlfn.HSTACK(
+    B3:C9,
+    SUBSTITUTE(SUBSTITUTE(C3:D9, {"q"}, "-"), "000", "-"),
+    E3:E9
+)</f>
+        <v>45508</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <v>XNM00012</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <v>XNM-12</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <v>C-12</v>
+      </c>
+      <c r="F15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>45511</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <v>XNM-13</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <v>XNM-13</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <v>C-13</v>
+      </c>
+      <c r="F16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>45511</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <v>XNM-07</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <v>XNM-07</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <v>C-13</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>45516</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <v>XNM00011</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <v>XNM-11</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <v>C-12</v>
+      </c>
+      <c r="F18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>45518</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <v>XNM-01</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <v>XNM-01</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <v>C-16</v>
+      </c>
+      <c r="F19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>45525</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <v>XNM-22</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <v>XNM-22</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <v>C-13</v>
+      </c>
+      <c r="F20">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <v>XNMq14</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <v>XNM-14</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <v>C-12</v>
+      </c>
+      <c r="F21">
+        <v>1700</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-115 Multi Replacement.xlsx
+++ b/CH-115 Multi Replacement.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B3CCDF-9909-4198-98F8-F112760BE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA25890-4A89-40D7-9D09-0B5ADDF7B57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$3:$B$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt2'!$B$3:$B$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$3:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="23">
   <si>
     <t>Result</t>
   </si>
@@ -884,6 +886,241 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220344</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2903855</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>135891</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89282473-0718-4F11-A27F-01A05286DA7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3612514" y="105411"/>
+          <a:ext cx="2680971" cy="2014220"/>
+          <a:chOff x="4191000" y="1860550"/>
+          <a:chExt cx="3695700" cy="2393950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEF7099-0A73-EEBC-37F3-95A1EC558529}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4191000" y="1860550"/>
+            <a:ext cx="3695700" cy="2393950"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-AU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D449F00-6C07-F877-2165-19DC2EE11131}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4302124" y="1898651"/>
+            <a:ext cx="3476625" cy="2343149"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Challenge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> 115</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="2000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Multi Replacement! </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-AU" sz="1600" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:endParaRPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Replace "q" and "000" in the Product ID and Customer ID columns with "-".</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Wisp">
   <a:themeElements>
@@ -1474,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47CC63-CA9F-429D-B35C-E6A51DDE6371}">
   <dimension ref="B1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J15:J16"/>
     </sheetView>
   </sheetViews>
@@ -1907,4 +2144,436 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618C8C0-5D1A-48E8-B0F8-C790AA019792}">
+  <dimension ref="B1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.69921875" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14">
+        <v>45508</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16">
+        <v>900</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="14">
+        <v>45508</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="16">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
+        <v>45511</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="14">
+        <v>45511</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>45511</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16">
+        <v>500</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="14">
+        <v>45511</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="16">
+        <v>500</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>45516</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16">
+        <v>600</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="14">
+        <v>45516</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="16">
+        <v>600</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>45518</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16">
+        <v>800</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="14">
+        <v>45518</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="16">
+        <v>800</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>45525</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="14">
+        <v>45525</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1400</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
+        <v>45530</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="17">
+        <v>45530</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1700</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="str" cm="1">
+        <f t="array" ref="B16:E23">_xlfn.LET(
+    _xlpm.a, _xlfn.REDUCE(
+        B2:E9,
+        {"q","000"},
+        _xlfn.LAMBDA(_xlpm.x,_xlpm.y, SUBSTITUTE(_xlpm.x, _xlpm.y, "-"))
+    ),
+    IFERROR(--_xlpm.a, _xlpm.a)
+)</f>
+        <v>Date</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <v>Product ID</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <v>Customer ID</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <v>Total Sales</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>45508</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <v>XNM-12</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <v>C-12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>45511</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <v>XNM-13</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <v>C-13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>45511</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <v>XNM-07</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <v>C-13</v>
+      </c>
+      <c r="E19" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>45516</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <v>XNM-11</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <v>C-12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>45518</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <v>XNM-01</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <v>C-16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>45525</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <v>XNM-22</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <v>C-13</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <v>XNM-14</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <v>C-12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1700</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-115 Multi Replacement.xlsx
+++ b/CH-115 Multi Replacement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA25890-4A89-40D7-9D09-0B5ADDF7B57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA7AEA-4FD4-404F-AAE3-046A4B05D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$3:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -393,11 +394,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,8 +445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3611244" y="104141"/>
-          <a:ext cx="2683511" cy="2012950"/>
+          <a:off x="3609974" y="101601"/>
+          <a:ext cx="2686051" cy="1997710"/>
           <a:chOff x="4191000" y="1860550"/>
           <a:chExt cx="3695700" cy="2393950"/>
         </a:xfrm>
@@ -679,8 +680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3612514" y="105411"/>
-          <a:ext cx="2680971" cy="2014220"/>
+          <a:off x="3611244" y="104141"/>
+          <a:ext cx="2683511" cy="1997710"/>
           <a:chOff x="4191000" y="1860550"/>
           <a:chExt cx="3695700" cy="2393950"/>
         </a:xfrm>
@@ -914,8 +915,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3612514" y="105411"/>
-          <a:ext cx="2680971" cy="2014220"/>
+          <a:off x="3611244" y="104141"/>
+          <a:ext cx="2683511" cy="1997710"/>
           <a:chOff x="4191000" y="1860550"/>
           <a:chExt cx="3695700" cy="2393950"/>
         </a:xfrm>
@@ -1382,6 +1383,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1414,18 +1418,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1730,18 +1734,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2002,7 +2006,7 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="12"/>
@@ -2151,7 +2155,7 @@
   <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2169,18 +2173,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
